--- a/KUtil/KMM1_MR01/_Data/sample_mast.xlsx
+++ b/KUtil/KMM1_MR01/_Data/sample_mast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB6E55C-7280-48D2-9950-32109120EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3A0585-A4D3-4709-B64A-08CFCADAA95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{10E6F84B-A950-48B8-B6D2-2ABED4BAE258}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="10965" xr2:uid="{038F3BCD-8DFA-478E-A820-4B5828FC606E}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,12 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6D643-ECAE-475B-9294-FE3C23FA0081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBEBF29-5EA3-483B-86AB-1686539A0D21}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:I61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3517,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A269A1B-F614-4C41-BE9F-82F579508F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFAFCE2-CAE9-4C79-8192-D8A0B5C332A3}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504EB8BF-8920-4CDF-AA78-544B167A61D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42688B89-E189-4736-822D-30C183E10011}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4577,5 +4575,6 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>